--- a/projects/project-7-final/data/child_mortality_urban_1990_2021.xlsx
+++ b/projects/project-7-final/data/child_mortality_urban_1990_2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>region</t>
   </si>
@@ -209,9 +209,6 @@
     <t xml:space="preserve">        Республика Калмыкия</t>
   </si>
   <si>
-    <t xml:space="preserve">        Республика Крым</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Краснодарский край</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t xml:space="preserve">        Ростовская область</t>
   </si>
   <si>
-    <t xml:space="preserve">        Город федерального значения Севастополь</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Республика Дагестан</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t xml:space="preserve">        Пермский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Коми-Пермяцкий округ, входящий в состав Пермского края</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Кировская область</t>
   </si>
   <si>
@@ -329,18 +320,9 @@
     <t xml:space="preserve">        Красноярский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Таймырский (Долгано-Ненецкий) автономный округ (Красноярский край)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Эвенкийский автономный округ (Красноярский край)</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Иркутская область</t>
   </si>
   <si>
-    <t xml:space="preserve">            Усть-Ордынский Бурятский округ</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Кемеровская область - Кузбасс</t>
   </si>
   <si>
@@ -359,18 +341,12 @@
     <t xml:space="preserve">        Забайкальский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Агинский Бурятский округ (Забайкальский край)</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Республика Саха (Якутия)</t>
   </si>
   <si>
     <t xml:space="preserve">        Камчатский край</t>
   </si>
   <si>
-    <t xml:space="preserve">            Корякский округ, входящий в состав Камчатского края</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Приморский край</t>
   </si>
   <si>
@@ -390,9 +366,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Чукотский автономный округ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Крымский федеральный округ</t>
   </si>
   <si>
     <t>Число умерших на первом году жизни детей за год</t>
@@ -534,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -604,51 +577,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -656,21 +584,6 @@
       </right>
       <top style="thin">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -688,7 +601,7 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,7 +626,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -735,37 +648,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -927,13 +825,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1022,7 +914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,10 +923,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1280,13 +1172,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1579,7 +1465,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,10 +1474,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1836,13 +1722,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG95"/>
+  <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="82.1875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="82.1719" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.67188" style="1" customWidth="1"/>
     <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
     <col min="18" max="23" width="7" style="1" customWidth="1"/>
@@ -5143,51 +5029,101 @@
       <c r="A34" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="6"/>
+      <c r="B34" s="3">
+        <v>616</v>
+      </c>
+      <c r="C34" s="3">
+        <v>563</v>
+      </c>
+      <c r="D34" s="3">
+        <v>509</v>
+      </c>
+      <c r="E34" s="3">
+        <v>622</v>
+      </c>
+      <c r="F34" s="3">
+        <v>572</v>
+      </c>
+      <c r="G34" s="3">
+        <v>505</v>
+      </c>
+      <c r="H34" s="3">
+        <v>422</v>
+      </c>
+      <c r="I34" s="3">
+        <v>385</v>
+      </c>
+      <c r="J34" s="3">
+        <v>397</v>
+      </c>
+      <c r="K34" s="3">
+        <v>265</v>
+      </c>
+      <c r="L34" s="3">
+        <v>302</v>
+      </c>
+      <c r="M34" s="3">
+        <v>336</v>
+      </c>
+      <c r="N34" s="3">
+        <v>284</v>
+      </c>
+      <c r="O34" s="3">
+        <v>226</v>
+      </c>
+      <c r="P34" s="3">
+        <v>272</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>209</v>
+      </c>
+      <c r="R34" s="3">
+        <v>214</v>
+      </c>
+      <c r="S34" s="3">
+        <v>196</v>
+      </c>
+      <c r="T34" s="3">
+        <v>195</v>
+      </c>
+      <c r="U34" s="3">
+        <v>174</v>
+      </c>
+      <c r="V34" s="3">
+        <v>144</v>
+      </c>
+      <c r="W34" s="3">
+        <v>198</v>
+      </c>
+      <c r="X34" s="3">
+        <v>247</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>246</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>229</v>
+      </c>
       <c r="AA34" s="3">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="AB34" s="3">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="AC34" s="3">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="AD34" s="3">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="AE34" s="3">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="AF34" s="3">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="AG34" s="3">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -5195,100 +5131,100 @@
         <v>66</v>
       </c>
       <c r="B35" s="3">
-        <v>616</v>
+        <v>147</v>
       </c>
       <c r="C35" s="3">
-        <v>563</v>
+        <v>162</v>
       </c>
       <c r="D35" s="3">
-        <v>509</v>
+        <v>133</v>
       </c>
       <c r="E35" s="3">
-        <v>622</v>
+        <v>153</v>
       </c>
       <c r="F35" s="3">
-        <v>572</v>
+        <v>140</v>
       </c>
       <c r="G35" s="3">
-        <v>505</v>
+        <v>123</v>
       </c>
       <c r="H35" s="3">
-        <v>422</v>
+        <v>135</v>
       </c>
       <c r="I35" s="3">
-        <v>385</v>
+        <v>109</v>
       </c>
       <c r="J35" s="3">
-        <v>397</v>
+        <v>129</v>
       </c>
       <c r="K35" s="3">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="L35" s="3">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="M35" s="3">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="N35" s="3">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="O35" s="3">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="P35" s="3">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="Q35" s="3">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="R35" s="3">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="S35" s="3">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="T35" s="3">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="U35" s="3">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="V35" s="3">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="W35" s="3">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="X35" s="3">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="Y35" s="3">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="Z35" s="3">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="AA35" s="3">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="AB35" s="3">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="AC35" s="3">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="AD35" s="3">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="AE35" s="3">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="AF35" s="3">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="AG35" s="3">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -5296,100 +5232,100 @@
         <v>67</v>
       </c>
       <c r="B36" s="3">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="C36" s="3">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="D36" s="3">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="E36" s="3">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="F36" s="3">
+        <v>298</v>
+      </c>
+      <c r="G36" s="3">
+        <v>294</v>
+      </c>
+      <c r="H36" s="3">
+        <v>256</v>
+      </c>
+      <c r="I36" s="3">
+        <v>247</v>
+      </c>
+      <c r="J36" s="3">
+        <v>248</v>
+      </c>
+      <c r="K36" s="3">
+        <v>249</v>
+      </c>
+      <c r="L36" s="3">
+        <v>248</v>
+      </c>
+      <c r="M36" s="3">
+        <v>260</v>
+      </c>
+      <c r="N36" s="3">
+        <v>222</v>
+      </c>
+      <c r="O36" s="3">
+        <v>255</v>
+      </c>
+      <c r="P36" s="3">
+        <v>259</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>206</v>
+      </c>
+      <c r="R36" s="3">
+        <v>194</v>
+      </c>
+      <c r="S36" s="3">
+        <v>202</v>
+      </c>
+      <c r="T36" s="3">
+        <v>242</v>
+      </c>
+      <c r="U36" s="3">
+        <v>197</v>
+      </c>
+      <c r="V36" s="3">
+        <v>198</v>
+      </c>
+      <c r="W36" s="3">
+        <v>182</v>
+      </c>
+      <c r="X36" s="3">
+        <v>225</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>209</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>168</v>
+      </c>
+      <c r="AA36" s="3">
         <v>140</v>
       </c>
-      <c r="G36" s="3">
-        <v>123</v>
-      </c>
-      <c r="H36" s="3">
-        <v>135</v>
-      </c>
-      <c r="I36" s="3">
-        <v>109</v>
-      </c>
-      <c r="J36" s="3">
-        <v>129</v>
-      </c>
-      <c r="K36" s="3">
-        <v>98</v>
-      </c>
-      <c r="L36" s="3">
-        <v>104</v>
-      </c>
-      <c r="M36" s="3">
-        <v>101</v>
-      </c>
-      <c r="N36" s="3">
-        <v>90</v>
-      </c>
-      <c r="O36" s="3">
-        <v>94</v>
-      </c>
-      <c r="P36" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>103</v>
-      </c>
-      <c r="R36" s="3">
+      <c r="AB36" s="3">
+        <v>121</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>72</v>
+      </c>
+      <c r="AD36" s="3">
         <v>79</v>
       </c>
-      <c r="S36" s="3">
-        <v>74</v>
-      </c>
-      <c r="T36" s="3">
-        <v>63</v>
-      </c>
-      <c r="U36" s="3">
-        <v>77</v>
-      </c>
-      <c r="V36" s="3">
-        <v>75</v>
-      </c>
-      <c r="W36" s="3">
+      <c r="AE36" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF36" s="3">
         <v>66</v>
       </c>
-      <c r="X36" s="3">
-        <v>113</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>95</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>106</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>89</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>61</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>52</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>57</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>54</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>51</v>
-      </c>
       <c r="AG36" s="3">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -5397,100 +5333,100 @@
         <v>68</v>
       </c>
       <c r="B37" s="3">
-        <v>363</v>
+        <v>680</v>
       </c>
       <c r="C37" s="3">
-        <v>342</v>
+        <v>658</v>
       </c>
       <c r="D37" s="3">
-        <v>348</v>
+        <v>554</v>
       </c>
       <c r="E37" s="3">
-        <v>318</v>
+        <v>572</v>
       </c>
       <c r="F37" s="3">
-        <v>298</v>
+        <v>530</v>
       </c>
       <c r="G37" s="3">
-        <v>294</v>
+        <v>447</v>
       </c>
       <c r="H37" s="3">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="I37" s="3">
-        <v>247</v>
+        <v>461</v>
       </c>
       <c r="J37" s="3">
-        <v>248</v>
+        <v>425</v>
       </c>
       <c r="K37" s="3">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="L37" s="3">
-        <v>248</v>
+        <v>379</v>
       </c>
       <c r="M37" s="3">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="N37" s="3">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="O37" s="3">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="P37" s="3">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="Q37" s="3">
-        <v>206</v>
+        <v>364</v>
       </c>
       <c r="R37" s="3">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="S37" s="3">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="T37" s="3">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="U37" s="3">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="V37" s="3">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="W37" s="3">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="X37" s="3">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="Y37" s="3">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="Z37" s="3">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="AA37" s="3">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="AB37" s="3">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="AC37" s="3">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="AD37" s="3">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AE37" s="3">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="AF37" s="3">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="AG37" s="3">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -5498,151 +5434,201 @@
         <v>69</v>
       </c>
       <c r="B38" s="3">
-        <v>680</v>
+        <v>337</v>
       </c>
       <c r="C38" s="3">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="D38" s="3">
-        <v>554</v>
+        <v>327</v>
       </c>
       <c r="E38" s="3">
-        <v>572</v>
+        <v>278</v>
       </c>
       <c r="F38" s="3">
-        <v>530</v>
+        <v>218</v>
       </c>
       <c r="G38" s="3">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="H38" s="3">
-        <v>465</v>
+        <v>218</v>
       </c>
       <c r="I38" s="3">
-        <v>461</v>
+        <v>190</v>
       </c>
       <c r="J38" s="3">
-        <v>425</v>
+        <v>258</v>
       </c>
       <c r="K38" s="3">
-        <v>433</v>
+        <v>269</v>
       </c>
       <c r="L38" s="3">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="M38" s="3">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="N38" s="3">
+        <v>315</v>
+      </c>
+      <c r="O38" s="3">
+        <v>244</v>
+      </c>
+      <c r="P38" s="3">
+        <v>327</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>279</v>
+      </c>
+      <c r="R38" s="3">
+        <v>327</v>
+      </c>
+      <c r="S38" s="3">
+        <v>332</v>
+      </c>
+      <c r="T38" s="3">
         <v>362</v>
       </c>
-      <c r="O38" s="3">
-        <v>365</v>
-      </c>
-      <c r="P38" s="3">
-        <v>345</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>364</v>
-      </c>
-      <c r="R38" s="3">
-        <v>323</v>
-      </c>
-      <c r="S38" s="3">
-        <v>324</v>
-      </c>
-      <c r="T38" s="3">
-        <v>279</v>
-      </c>
       <c r="U38" s="3">
-        <v>251</v>
+        <v>385</v>
       </c>
       <c r="V38" s="3">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="W38" s="3">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="X38" s="3">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="Y38" s="3">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="Z38" s="3">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="AA38" s="3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AB38" s="3">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="AC38" s="3">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="AD38" s="3">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AE38" s="3">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="AF38" s="3">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="AG38" s="3">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="6"/>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>89</v>
+      </c>
+      <c r="H39" s="3">
+        <v>81</v>
+      </c>
+      <c r="I39" s="3">
+        <v>70</v>
+      </c>
+      <c r="J39" s="3">
+        <v>161</v>
+      </c>
+      <c r="K39" s="3">
+        <v>168</v>
+      </c>
+      <c r="L39" s="3">
+        <v>187</v>
+      </c>
+      <c r="M39" s="3">
+        <v>143</v>
+      </c>
+      <c r="N39" s="3">
+        <v>136</v>
+      </c>
+      <c r="O39" s="3">
+        <v>95</v>
+      </c>
+      <c r="P39" s="3">
+        <v>110</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>103</v>
+      </c>
+      <c r="R39" s="3">
+        <v>118</v>
+      </c>
+      <c r="S39" s="3">
+        <v>89</v>
+      </c>
+      <c r="T39" s="3">
+        <v>80</v>
+      </c>
+      <c r="U39" s="3">
+        <v>65</v>
+      </c>
+      <c r="V39" s="3">
+        <v>73</v>
+      </c>
+      <c r="W39" s="3">
+        <v>72</v>
+      </c>
+      <c r="X39" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>62</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>69</v>
+      </c>
       <c r="AA39" s="3">
+        <v>51</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>45</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>26</v>
+      </c>
+      <c r="AF39" s="3">
         <v>24</v>
       </c>
-      <c r="AB39" s="3">
-        <v>24</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>19</v>
-      </c>
-      <c r="AD39" s="3">
-        <v>12</v>
-      </c>
-      <c r="AE39" s="3">
-        <v>15</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>15</v>
-      </c>
       <c r="AG39" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -5650,100 +5636,100 @@
         <v>71</v>
       </c>
       <c r="B40" s="3">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="D40" s="3">
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="E40" s="3">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="F40" s="3">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="G40" s="3">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="I40" s="3">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="J40" s="3">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="K40" s="3">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="L40" s="3">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="M40" s="3">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="N40" s="3">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="O40" s="3">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="P40" s="3">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="3">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="R40" s="3">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="S40" s="3">
-        <v>332</v>
+        <v>68</v>
       </c>
       <c r="T40" s="3">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="U40" s="3">
-        <v>385</v>
+        <v>36</v>
       </c>
       <c r="V40" s="3">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="W40" s="3">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="X40" s="3">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="Y40" s="3">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="Z40" s="3">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c r="AA40" s="3">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="AB40" s="3">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AC40" s="3">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="AD40" s="3">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AE40" s="3">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AF40" s="3">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="AG40" s="3">
-        <v>175</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -5751,100 +5737,100 @@
         <v>72</v>
       </c>
       <c r="B41" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G41" s="3">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H41" s="3">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I41" s="3">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J41" s="3">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="K41" s="3">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="L41" s="3">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="M41" s="3">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="N41" s="3">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="O41" s="3">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="P41" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="3">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="R41" s="3">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="S41" s="3">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="T41" s="3">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="U41" s="3">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="V41" s="3">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="W41" s="3">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="X41" s="3">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y41" s="3">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="Z41" s="3">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="AA41" s="3">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AB41" s="3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AC41" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AD41" s="3">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE41" s="3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AF41" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AG41" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -5852,100 +5838,100 @@
         <v>73</v>
       </c>
       <c r="B42" s="3">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D42" s="3">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E42" s="3">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="F42" s="3">
+        <v>111</v>
+      </c>
+      <c r="G42" s="3">
+        <v>104</v>
+      </c>
+      <c r="H42" s="3">
         <v>99</v>
       </c>
-      <c r="G42" s="3">
-        <v>83</v>
-      </c>
-      <c r="H42" s="3">
-        <v>105</v>
-      </c>
       <c r="I42" s="3">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="J42" s="3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K42" s="3">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="L42" s="3">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M42" s="3">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N42" s="3">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O42" s="3">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P42" s="3">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="Q42" s="3">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="R42" s="3">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="S42" s="3">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="T42" s="3">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="U42" s="3">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="V42" s="3">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W42" s="3">
+        <v>66</v>
+      </c>
+      <c r="X42" s="3">
+        <v>79</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>66</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>66</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>59</v>
+      </c>
+      <c r="AB42" s="3">
         <v>40</v>
-      </c>
-      <c r="X42" s="3">
-        <v>60</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>40</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>37</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>38</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>45</v>
       </c>
       <c r="AC42" s="3">
         <v>29</v>
       </c>
       <c r="AD42" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE42" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AF42" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG42" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -5953,100 +5939,94 @@
         <v>74</v>
       </c>
       <c r="B43" s="3">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="D43" s="3">
-        <v>55</v>
+        <v>393</v>
       </c>
       <c r="E43" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>50</v>
-      </c>
-      <c r="I43" s="3">
-        <v>51</v>
-      </c>
-      <c r="J43" s="3">
-        <v>53</v>
-      </c>
-      <c r="K43" s="3">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="P43" s="3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Q43" s="3">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="R43" s="3">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="S43" s="3">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="T43" s="3">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="U43" s="3">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="V43" s="3">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="W43" s="3">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="X43" s="3">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="Y43" s="3">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="Z43" s="3">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="AA43" s="3">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="AB43" s="3">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="AC43" s="3">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="AD43" s="3">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="AE43" s="3">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="AF43" s="3">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="AG43" s="3">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -6054,100 +6034,100 @@
         <v>75</v>
       </c>
       <c r="B44" s="3">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="C44" s="3">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="D44" s="3">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="E44" s="3">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="F44" s="3">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="G44" s="3">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="H44" s="3">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="I44" s="3">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="J44" s="3">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="K44" s="3">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="L44" s="3">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="M44" s="3">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="N44" s="3">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="O44" s="3">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="P44" s="3">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="Q44" s="3">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="R44" s="3">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="S44" s="3">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="T44" s="3">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="U44" s="3">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="V44" s="3">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="W44" s="3">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="X44" s="3">
+        <v>224</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>178</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>228</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>166</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>186</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>159</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>112</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>85</v>
+      </c>
+      <c r="AF44" s="3">
         <v>79</v>
       </c>
-      <c r="Y44" s="3">
-        <v>66</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>66</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>59</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>40</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>29</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>24</v>
-      </c>
-      <c r="AE44" s="3">
-        <v>35</v>
-      </c>
-      <c r="AF44" s="3">
-        <v>24</v>
-      </c>
       <c r="AG44" s="3">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -6155,94 +6135,100 @@
         <v>76</v>
       </c>
       <c r="B45" s="3">
-        <v>263</v>
+        <v>731</v>
       </c>
       <c r="C45" s="3">
-        <v>326</v>
+        <v>652</v>
       </c>
       <c r="D45" s="3">
-        <v>393</v>
+        <v>558</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
+        <v>465</v>
+      </c>
+      <c r="I45" s="3">
+        <v>434</v>
+      </c>
+      <c r="J45" s="3">
+        <v>469</v>
+      </c>
+      <c r="K45" s="3">
+        <v>413</v>
+      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="O45" s="3">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="P45" s="3">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="Q45" s="3">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="R45" s="3">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="S45" s="3">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="T45" s="3">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="U45" s="3">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="V45" s="3">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="W45" s="3">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="X45" s="3">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="Y45" s="3">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="Z45" s="3">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="AA45" s="3">
+        <v>242</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>197</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>192</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>138</v>
+      </c>
+      <c r="AE45" s="3">
         <v>141</v>
       </c>
-      <c r="AB45" s="3">
-        <v>114</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>72</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>68</v>
-      </c>
       <c r="AF45" s="3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG45" s="3">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -6250,100 +6236,100 @@
         <v>77</v>
       </c>
       <c r="B46" s="3">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3">
-        <v>333</v>
+        <v>102</v>
       </c>
       <c r="D46" s="3">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="E46" s="3">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="G46" s="3">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="H46" s="3">
-        <v>326</v>
+        <v>53</v>
       </c>
       <c r="I46" s="3">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="J46" s="3">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="K46" s="3">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="L46" s="3">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="M46" s="3">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="N46" s="3">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="O46" s="3">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="Q46" s="3">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="R46" s="3">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="S46" s="3">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="T46" s="3">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="U46" s="3">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="V46" s="3">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="W46" s="3">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="X46" s="3">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="Y46" s="3">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="Z46" s="3">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AA46" s="3">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="AB46" s="3">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="AC46" s="3">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="AD46" s="3">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AE46" s="3">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AF46" s="3">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AG46" s="3">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -6351,100 +6337,100 @@
         <v>78</v>
       </c>
       <c r="B47" s="3">
-        <v>731</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3">
-        <v>652</v>
+        <v>119</v>
       </c>
       <c r="D47" s="3">
-        <v>558</v>
+        <v>117</v>
       </c>
       <c r="E47" s="3">
-        <v>555</v>
+        <v>101</v>
       </c>
       <c r="F47" s="3">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="G47" s="3">
-        <v>508</v>
+        <v>71</v>
       </c>
       <c r="H47" s="3">
-        <v>465</v>
+        <v>52</v>
       </c>
       <c r="I47" s="3">
-        <v>434</v>
+        <v>64</v>
       </c>
       <c r="J47" s="3">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="K47" s="3">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="L47" s="3">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="M47" s="3">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="N47" s="3">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="O47" s="3">
-        <v>349</v>
+        <v>50</v>
       </c>
       <c r="P47" s="3">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c r="Q47" s="3">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="R47" s="3">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="S47" s="3">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="T47" s="3">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="U47" s="3">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="V47" s="3">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="W47" s="3">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="X47" s="3">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="Y47" s="3">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="Z47" s="3">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="AA47" s="3">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="AB47" s="3">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="AC47" s="3">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="AD47" s="3">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="AE47" s="3">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="AF47" s="3">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="AG47" s="3">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -6452,100 +6438,100 @@
         <v>79</v>
       </c>
       <c r="B48" s="3">
-        <v>103</v>
+        <v>731</v>
       </c>
       <c r="C48" s="3">
-        <v>102</v>
+        <v>642</v>
       </c>
       <c r="D48" s="3">
-        <v>93</v>
+        <v>514</v>
       </c>
       <c r="E48" s="3">
-        <v>81</v>
+        <v>556</v>
       </c>
       <c r="F48" s="3">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="G48" s="3">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="H48" s="3">
-        <v>53</v>
+        <v>447</v>
       </c>
       <c r="I48" s="3">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="J48" s="3">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="K48" s="3">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="L48" s="3">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="M48" s="3">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="N48" s="3">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="O48" s="3">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="Q48" s="3">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="R48" s="3">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="S48" s="3">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="T48" s="3">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="U48" s="3">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="V48" s="3">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="W48" s="3">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="X48" s="3">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="Y48" s="3">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="Z48" s="3">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AA48" s="3">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="AB48" s="3">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="AC48" s="3">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="AD48" s="3">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="AE48" s="3">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="AF48" s="3">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AG48" s="3">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -6553,100 +6539,100 @@
         <v>80</v>
       </c>
       <c r="B49" s="3">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="C49" s="3">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="D49" s="3">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="E49" s="3">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="F49" s="3">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="G49" s="3">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H49" s="3">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="I49" s="3">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="J49" s="3">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="K49" s="3">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="L49" s="3">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="M49" s="3">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="N49" s="3">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="O49" s="3">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="P49" s="3">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="Q49" s="3">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="R49" s="3">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="S49" s="3">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="U49" s="3">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="V49" s="3">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="W49" s="3">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="X49" s="3">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="Y49" s="3">
+        <v>94</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>93</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>75</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>57</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>58</v>
+      </c>
+      <c r="AD49" s="3">
         <v>42</v>
       </c>
-      <c r="Z49" s="3">
-        <v>34</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>19</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>19</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>20</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>17</v>
-      </c>
       <c r="AE49" s="3">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AF49" s="3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AG49" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -6654,100 +6640,100 @@
         <v>81</v>
       </c>
       <c r="B50" s="3">
-        <v>731</v>
+        <v>169</v>
       </c>
       <c r="C50" s="3">
-        <v>642</v>
+        <v>174</v>
       </c>
       <c r="D50" s="3">
-        <v>514</v>
+        <v>145</v>
       </c>
       <c r="E50" s="3">
-        <v>556</v>
+        <v>142</v>
       </c>
       <c r="F50" s="3">
-        <v>501</v>
+        <v>135</v>
       </c>
       <c r="G50" s="3">
-        <v>472</v>
+        <v>112</v>
       </c>
       <c r="H50" s="3">
-        <v>447</v>
+        <v>134</v>
       </c>
       <c r="I50" s="3">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="J50" s="3">
-        <v>403</v>
+        <v>106</v>
       </c>
       <c r="K50" s="3">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="L50" s="3">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="M50" s="3">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="N50" s="3">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="O50" s="3">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="P50" s="3">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="Q50" s="3">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="R50" s="3">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="S50" s="3">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="T50" s="3">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="U50" s="3">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="V50" s="3">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="W50" s="3">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="X50" s="3">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="Y50" s="3">
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="Z50" s="3">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="AA50" s="3">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="AB50" s="3">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="AC50" s="3">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="AD50" s="3">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="AE50" s="3">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="AF50" s="3">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="AG50" s="3">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -6755,100 +6741,100 @@
         <v>82</v>
       </c>
       <c r="B51" s="3">
-        <v>238</v>
+        <v>545</v>
       </c>
       <c r="C51" s="3">
-        <v>253</v>
+        <v>447</v>
       </c>
       <c r="D51" s="3">
-        <v>263</v>
+        <v>438</v>
       </c>
       <c r="E51" s="3">
-        <v>212</v>
+        <v>441</v>
       </c>
       <c r="F51" s="3">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="G51" s="3">
-        <v>192</v>
+        <v>366</v>
       </c>
       <c r="H51" s="3">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="I51" s="3">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="J51" s="3">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="K51" s="3">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="L51" s="3">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="M51" s="3">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="N51" s="3">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="O51" s="3">
+        <v>297</v>
+      </c>
+      <c r="P51" s="3">
+        <v>260</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>231</v>
+      </c>
+      <c r="R51" s="3">
+        <v>226</v>
+      </c>
+      <c r="S51" s="3">
+        <v>230</v>
+      </c>
+      <c r="T51" s="3">
+        <v>227</v>
+      </c>
+      <c r="U51" s="3">
+        <v>206</v>
+      </c>
+      <c r="V51" s="3">
+        <v>179</v>
+      </c>
+      <c r="W51" s="3">
         <v>168</v>
       </c>
-      <c r="P51" s="3">
-        <v>149</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>129</v>
-      </c>
-      <c r="R51" s="3">
-        <v>132</v>
-      </c>
-      <c r="S51" s="3">
-        <v>100</v>
-      </c>
-      <c r="T51" s="3">
-        <v>104</v>
-      </c>
-      <c r="U51" s="3">
-        <v>103</v>
-      </c>
-      <c r="V51" s="3">
+      <c r="X51" s="3">
+        <v>224</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>219</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>187</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>154</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>143</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>123</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>106</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>81</v>
+      </c>
+      <c r="AF51" s="3">
         <v>88</v>
       </c>
-      <c r="W51" s="3">
-        <v>68</v>
-      </c>
-      <c r="X51" s="3">
-        <v>130</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>94</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>93</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>75</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>57</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>58</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>42</v>
-      </c>
-      <c r="AE51" s="3">
-        <v>37</v>
-      </c>
-      <c r="AF51" s="3">
-        <v>40</v>
-      </c>
       <c r="AG51" s="3">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -6856,100 +6842,100 @@
         <v>83</v>
       </c>
       <c r="B52" s="3">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C52" s="3">
         <v>174</v>
       </c>
       <c r="D52" s="3">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="E52" s="3">
+        <v>155</v>
+      </c>
+      <c r="F52" s="3">
+        <v>137</v>
+      </c>
+      <c r="G52" s="3">
         <v>142</v>
       </c>
-      <c r="F52" s="3">
-        <v>135</v>
-      </c>
-      <c r="G52" s="3">
-        <v>112</v>
-      </c>
       <c r="H52" s="3">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I52" s="3">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="J52" s="3">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="K52" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L52" s="3">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M52" s="3">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="N52" s="3">
+        <v>144</v>
+      </c>
+      <c r="O52" s="3">
+        <v>127</v>
+      </c>
+      <c r="P52" s="3">
+        <v>119</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>89</v>
+      </c>
+      <c r="R52" s="3">
+        <v>86</v>
+      </c>
+      <c r="S52" s="3">
         <v>90</v>
       </c>
-      <c r="O52" s="3">
-        <v>67</v>
-      </c>
-      <c r="P52" s="3">
-        <v>70</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>60</v>
-      </c>
-      <c r="R52" s="3">
-        <v>67</v>
-      </c>
-      <c r="S52" s="3">
-        <v>52</v>
-      </c>
       <c r="T52" s="3">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="U52" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V52" s="3">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="W52" s="3">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="X52" s="3">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="Y52" s="3">
+        <v>72</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>45</v>
+      </c>
+      <c r="AA52" s="3">
         <v>46</v>
       </c>
-      <c r="Z52" s="3">
-        <v>38</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>32</v>
-      </c>
       <c r="AB52" s="3">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="AC52" s="3">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AD52" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE52" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF52" s="3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AG52" s="3">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -6957,100 +6943,100 @@
         <v>84</v>
       </c>
       <c r="B53" s="3">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C53" s="3">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D53" s="3">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="E53" s="3">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="F53" s="3">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G53" s="3">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="H53" s="3">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I53" s="3">
+        <v>402</v>
+      </c>
+      <c r="J53" s="3">
+        <v>347</v>
+      </c>
+      <c r="K53" s="3">
+        <v>358</v>
+      </c>
+      <c r="L53" s="3">
+        <v>326</v>
+      </c>
+      <c r="M53" s="3">
+        <v>285</v>
+      </c>
+      <c r="N53" s="3">
+        <v>282</v>
+      </c>
+      <c r="O53" s="3">
+        <v>314</v>
+      </c>
+      <c r="P53" s="3">
+        <v>286</v>
+      </c>
+      <c r="Q53" s="3">
         <v>292</v>
       </c>
-      <c r="J53" s="3">
-        <v>290</v>
-      </c>
-      <c r="K53" s="3">
-        <v>326</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="R53" s="3">
+        <v>274</v>
+      </c>
+      <c r="S53" s="3">
+        <v>238</v>
+      </c>
+      <c r="T53" s="3">
+        <v>215</v>
+      </c>
+      <c r="U53" s="3">
+        <v>233</v>
+      </c>
+      <c r="V53" s="3">
+        <v>216</v>
+      </c>
+      <c r="W53" s="3">
+        <v>202</v>
+      </c>
+      <c r="X53" s="3">
         <v>278</v>
       </c>
-      <c r="M53" s="3">
-        <v>276</v>
-      </c>
-      <c r="N53" s="3">
-        <v>283</v>
-      </c>
-      <c r="O53" s="3">
-        <v>297</v>
-      </c>
-      <c r="P53" s="3">
-        <v>260</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>231</v>
-      </c>
-      <c r="R53" s="3">
-        <v>226</v>
-      </c>
-      <c r="S53" s="3">
-        <v>230</v>
-      </c>
-      <c r="T53" s="3">
-        <v>227</v>
-      </c>
-      <c r="U53" s="3">
-        <v>206</v>
-      </c>
-      <c r="V53" s="3">
-        <v>179</v>
-      </c>
-      <c r="W53" s="3">
-        <v>168</v>
-      </c>
-      <c r="X53" s="3">
-        <v>224</v>
-      </c>
       <c r="Y53" s="3">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="Z53" s="3">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="AA53" s="3">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="AB53" s="3">
+        <v>208</v>
+      </c>
+      <c r="AC53" s="3">
         <v>143</v>
       </c>
-      <c r="AC53" s="3">
-        <v>123</v>
-      </c>
       <c r="AD53" s="3">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="AE53" s="3">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AF53" s="3">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AG53" s="3">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -7058,175 +7044,201 @@
         <v>85</v>
       </c>
       <c r="B54" s="3">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="C54" s="3">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="D54" s="3">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="E54" s="3">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="F54" s="3">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="G54" s="3">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="H54" s="3">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="I54" s="3">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="J54" s="3">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="K54" s="3">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="L54" s="3">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="M54" s="3">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="N54" s="3">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="O54" s="3">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="P54" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>135</v>
+      </c>
+      <c r="R54" s="3">
+        <v>127</v>
+      </c>
       <c r="S54" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="T54" s="3">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="U54" s="3">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="V54" s="3">
-        <v>4</v>
-      </c>
-      <c r="W54" s="4"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="W54" s="3">
+        <v>107</v>
+      </c>
+      <c r="X54" s="3">
+        <v>148</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>157</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>148</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>101</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>94</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>83</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>59</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>41</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="B55" s="3">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C55" s="3">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E55" s="3">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F55" s="3">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G55" s="3">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="H55" s="3">
         <v>114</v>
       </c>
       <c r="I55" s="3">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="J55" s="3">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="K55" s="3">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L55" s="3">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="M55" s="3">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="N55" s="3">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="O55" s="3">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P55" s="3">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="Q55" s="3">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="R55" s="3">
         <v>86</v>
       </c>
       <c r="S55" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T55" s="3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U55" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V55" s="3">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="W55" s="3">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="X55" s="3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y55" s="3">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Z55" s="3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AA55" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB55" s="3">
         <v>58</v>
       </c>
       <c r="AC55" s="3">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AD55" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE55" s="3">
+        <v>35</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG55" s="3">
         <v>28</v>
-      </c>
-      <c r="AF55" s="3">
-        <v>31</v>
-      </c>
-      <c r="AG55" s="3">
-        <v>49</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -7234,100 +7246,100 @@
         <v>87</v>
       </c>
       <c r="B56" s="3">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="C56" s="3">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D56" s="3">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="E56" s="3">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="F56" s="3">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="G56" s="3">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="H56" s="3">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="I56" s="3">
-        <v>402</v>
+        <v>241</v>
       </c>
       <c r="J56" s="3">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="K56" s="3">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="L56" s="3">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="M56" s="3">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="N56" s="3">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="O56" s="3">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="P56" s="3">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="Q56" s="3">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="R56" s="3">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="S56" s="3">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="T56" s="3">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="U56" s="3">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="V56" s="3">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="W56" s="3">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="X56" s="3">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="Y56" s="3">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="Z56" s="3">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="AA56" s="3">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="AB56" s="3">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="AC56" s="3">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="AD56" s="3">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="AE56" s="3">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AF56" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG56" s="3">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -7335,100 +7347,100 @@
         <v>88</v>
       </c>
       <c r="B57" s="3">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="C57" s="3">
-        <v>324</v>
+        <v>441</v>
       </c>
       <c r="D57" s="3">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="E57" s="3">
-        <v>246</v>
+        <v>438</v>
       </c>
       <c r="F57" s="3">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="G57" s="3">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="I57" s="3">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="J57" s="3">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="K57" s="3">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="L57" s="3">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="M57" s="3">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="N57" s="3">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="O57" s="3">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="P57" s="3">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="Q57" s="3">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="R57" s="3">
+        <v>151</v>
+      </c>
+      <c r="S57" s="3">
+        <v>154</v>
+      </c>
+      <c r="T57" s="3">
+        <v>122</v>
+      </c>
+      <c r="U57" s="3">
+        <v>120</v>
+      </c>
+      <c r="V57" s="3">
+        <v>111</v>
+      </c>
+      <c r="W57" s="3">
+        <v>97</v>
+      </c>
+      <c r="X57" s="3">
+        <v>133</v>
+      </c>
+      <c r="Y57" s="3">
         <v>127</v>
       </c>
-      <c r="S57" s="3">
-        <v>111</v>
-      </c>
-      <c r="T57" s="3">
-        <v>114</v>
-      </c>
-      <c r="U57" s="3">
-        <v>86</v>
-      </c>
-      <c r="V57" s="3">
-        <v>92</v>
-      </c>
-      <c r="W57" s="3">
-        <v>107</v>
-      </c>
-      <c r="X57" s="3">
-        <v>148</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>157</v>
-      </c>
       <c r="Z57" s="3">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AA57" s="3">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AB57" s="3">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AC57" s="3">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AD57" s="3">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="AE57" s="3">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AF57" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG57" s="3">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -7436,100 +7448,100 @@
         <v>89</v>
       </c>
       <c r="B58" s="3">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="C58" s="3">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D58" s="3">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="E58" s="3">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="F58" s="3">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="G58" s="3">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="H58" s="3">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="I58" s="3">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="J58" s="3">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="K58" s="3">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="L58" s="3">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="M58" s="3">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="N58" s="3">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="O58" s="3">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P58" s="3">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="Q58" s="3">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R58" s="3">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S58" s="3">
+        <v>79</v>
+      </c>
+      <c r="T58" s="3">
+        <v>84</v>
+      </c>
+      <c r="U58" s="3">
+        <v>76</v>
+      </c>
+      <c r="V58" s="3">
+        <v>58</v>
+      </c>
+      <c r="W58" s="3">
+        <v>78</v>
+      </c>
+      <c r="X58" s="3">
+        <v>73</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>99</v>
+      </c>
+      <c r="Z58" s="3">
         <v>88</v>
       </c>
-      <c r="T58" s="3">
-        <v>73</v>
-      </c>
-      <c r="U58" s="3">
-        <v>60</v>
-      </c>
-      <c r="V58" s="3">
-        <v>68</v>
-      </c>
-      <c r="W58" s="3">
-        <v>52</v>
-      </c>
-      <c r="X58" s="3">
-        <v>70</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
+        <v>71</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>74</v>
+      </c>
+      <c r="AC58" s="3">
         <v>49</v>
       </c>
-      <c r="Z58" s="3">
-        <v>54</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>44</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>58</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>36</v>
-      </c>
       <c r="AD58" s="3">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="AE58" s="3">
         <v>35</v>
       </c>
       <c r="AF58" s="3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG58" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -7537,100 +7549,100 @@
         <v>90</v>
       </c>
       <c r="B59" s="3">
-        <v>598</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3">
-        <v>446</v>
+        <v>133</v>
       </c>
       <c r="D59" s="3">
-        <v>383</v>
+        <v>95</v>
       </c>
       <c r="E59" s="3">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="F59" s="3">
-        <v>388</v>
+        <v>126</v>
       </c>
       <c r="G59" s="3">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="H59" s="3">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="I59" s="3">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="J59" s="3">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="K59" s="3">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L59" s="3">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="M59" s="3">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="N59" s="3">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="O59" s="3">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="P59" s="3">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Q59" s="3">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="R59" s="3">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="S59" s="3">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="T59" s="3">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="V59" s="3">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="W59" s="3">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="X59" s="3">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="Y59" s="3">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="Z59" s="3">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="AA59" s="3">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="AB59" s="3">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="AC59" s="3">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="AD59" s="3">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AE59" s="3">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="AF59" s="3">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="AG59" s="3">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -7638,100 +7650,100 @@
         <v>91</v>
       </c>
       <c r="B60" s="3">
-        <v>479</v>
+        <v>762</v>
       </c>
       <c r="C60" s="3">
-        <v>441</v>
+        <v>716</v>
       </c>
       <c r="D60" s="3">
-        <v>391</v>
+        <v>625</v>
       </c>
       <c r="E60" s="3">
-        <v>438</v>
+        <v>605</v>
       </c>
       <c r="F60" s="3">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>584</v>
       </c>
       <c r="H60" s="3">
-        <v>348</v>
+        <v>598</v>
       </c>
       <c r="I60" s="3">
-        <v>260</v>
+        <v>466</v>
       </c>
       <c r="J60" s="3">
-        <v>256</v>
+        <v>461</v>
       </c>
       <c r="K60" s="3">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="L60" s="3">
-        <v>257</v>
+        <v>478</v>
       </c>
       <c r="M60" s="3">
-        <v>274</v>
+        <v>407</v>
       </c>
       <c r="N60" s="3">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="O60" s="3">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="P60" s="3">
+        <v>407</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>372</v>
+      </c>
+      <c r="R60" s="3">
+        <v>328</v>
+      </c>
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
+        <v>299</v>
+      </c>
+      <c r="U60" s="3">
+        <v>277</v>
+      </c>
+      <c r="V60" s="3">
+        <v>273</v>
+      </c>
+      <c r="W60" s="3">
+        <v>268</v>
+      </c>
+      <c r="X60" s="3">
+        <v>355</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>345</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>319</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>285</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>279</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>213</v>
+      </c>
+      <c r="AD60" s="3">
         <v>182</v>
       </c>
-      <c r="Q60" s="3">
-        <v>146</v>
-      </c>
-      <c r="R60" s="3">
-        <v>151</v>
-      </c>
-      <c r="S60" s="3">
-        <v>154</v>
-      </c>
-      <c r="T60" s="3">
-        <v>122</v>
-      </c>
-      <c r="U60" s="3">
-        <v>120</v>
-      </c>
-      <c r="V60" s="3">
-        <v>111</v>
-      </c>
-      <c r="W60" s="3">
-        <v>97</v>
-      </c>
-      <c r="X60" s="3">
-        <v>133</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>127</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>141</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>136</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>120</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>77</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>79</v>
-      </c>
       <c r="AE60" s="3">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="AF60" s="3">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AG60" s="3">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -7739,100 +7751,100 @@
         <v>92</v>
       </c>
       <c r="B61" s="3">
-        <v>273</v>
+        <v>665</v>
       </c>
       <c r="C61" s="3">
-        <v>214</v>
+        <v>584</v>
       </c>
       <c r="D61" s="3">
+        <v>514</v>
+      </c>
+      <c r="E61" s="3">
+        <v>540</v>
+      </c>
+      <c r="F61" s="3">
+        <v>444</v>
+      </c>
+      <c r="G61" s="3">
+        <v>516</v>
+      </c>
+      <c r="H61" s="3">
+        <v>391</v>
+      </c>
+      <c r="I61" s="3">
+        <v>348</v>
+      </c>
+      <c r="J61" s="3">
+        <v>324</v>
+      </c>
+      <c r="K61" s="3">
+        <v>331</v>
+      </c>
+      <c r="L61" s="3">
+        <v>314</v>
+      </c>
+      <c r="M61" s="3">
+        <v>290</v>
+      </c>
+      <c r="N61" s="3">
+        <v>270</v>
+      </c>
+      <c r="O61" s="3">
+        <v>281</v>
+      </c>
+      <c r="P61" s="3">
+        <v>278</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>256</v>
+      </c>
+      <c r="R61" s="3">
+        <v>246</v>
+      </c>
+      <c r="S61" s="3">
+        <v>227</v>
+      </c>
+      <c r="T61" s="3">
+        <v>227</v>
+      </c>
+      <c r="U61" s="3">
+        <v>202</v>
+      </c>
+      <c r="V61" s="3">
+        <v>207</v>
+      </c>
+      <c r="W61" s="3">
+        <v>215</v>
+      </c>
+      <c r="X61" s="3">
+        <v>256</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>281</v>
+      </c>
+      <c r="Z61" s="3">
         <v>241</v>
       </c>
-      <c r="E61" s="3">
-        <v>201</v>
-      </c>
-      <c r="F61" s="3">
-        <v>220</v>
-      </c>
-      <c r="G61" s="3">
-        <v>197</v>
-      </c>
-      <c r="H61" s="3">
-        <v>149</v>
-      </c>
-      <c r="I61" s="3">
-        <v>147</v>
-      </c>
-      <c r="J61" s="3">
-        <v>142</v>
-      </c>
-      <c r="K61" s="3">
-        <v>149</v>
-      </c>
-      <c r="L61" s="3">
-        <v>132</v>
-      </c>
-      <c r="M61" s="3">
-        <v>123</v>
-      </c>
-      <c r="N61" s="3">
-        <v>127</v>
-      </c>
-      <c r="O61" s="3">
-        <v>96</v>
-      </c>
-      <c r="P61" s="3">
-        <v>81</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>108</v>
-      </c>
-      <c r="R61" s="3">
-        <v>78</v>
-      </c>
-      <c r="S61" s="3">
-        <v>79</v>
-      </c>
-      <c r="T61" s="3">
-        <v>84</v>
-      </c>
-      <c r="U61" s="3">
-        <v>76</v>
-      </c>
-      <c r="V61" s="3">
-        <v>58</v>
-      </c>
-      <c r="W61" s="3">
-        <v>78</v>
-      </c>
-      <c r="X61" s="3">
-        <v>73</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>99</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>88</v>
-      </c>
       <c r="AA61" s="3">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="AB61" s="3">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AC61" s="3">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="AD61" s="3">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="AE61" s="3">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="AF61" s="3">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="AG61" s="3">
-        <v>34</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -7840,302 +7852,254 @@
         <v>93</v>
       </c>
       <c r="B62" s="3">
+        <v>331</v>
+      </c>
+      <c r="C62" s="3">
+        <v>315</v>
+      </c>
+      <c r="D62" s="3">
+        <v>279</v>
+      </c>
+      <c r="E62" s="3">
+        <v>311</v>
+      </c>
+      <c r="F62" s="3">
+        <v>244</v>
+      </c>
+      <c r="G62" s="3">
+        <v>280</v>
+      </c>
+      <c r="H62" s="3">
+        <v>195</v>
+      </c>
+      <c r="I62" s="3">
+        <v>167</v>
+      </c>
+      <c r="J62" s="3">
+        <v>162</v>
+      </c>
+      <c r="K62" s="3">
+        <v>160</v>
+      </c>
+      <c r="L62" s="3">
+        <v>139</v>
+      </c>
+      <c r="M62" s="3">
+        <v>139</v>
+      </c>
+      <c r="N62" s="3">
+        <v>147</v>
+      </c>
+      <c r="O62" s="3">
+        <v>138</v>
+      </c>
+      <c r="P62" s="3">
+        <v>118</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>133</v>
+      </c>
+      <c r="R62" s="3">
         <v>134</v>
       </c>
-      <c r="C62" s="3">
-        <v>133</v>
-      </c>
-      <c r="D62" s="3">
-        <v>95</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="S62" s="3">
+        <v>101</v>
+      </c>
+      <c r="T62" s="3">
+        <v>101</v>
+      </c>
+      <c r="U62" s="3">
+        <v>81</v>
+      </c>
+      <c r="V62" s="3">
+        <v>94</v>
+      </c>
+      <c r="W62" s="3">
+        <v>110</v>
+      </c>
+      <c r="X62" s="3">
         <v>109</v>
       </c>
-      <c r="F62" s="3">
-        <v>126</v>
-      </c>
-      <c r="G62" s="3">
-        <v>107</v>
-      </c>
-      <c r="H62" s="3">
-        <v>69</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="Y62" s="3">
+        <v>141</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>113</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>124</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>97</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>93</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>60</v>
+      </c>
+      <c r="AE62" s="3">
         <v>83</v>
       </c>
-      <c r="J62" s="3">
-        <v>83</v>
-      </c>
-      <c r="K62" s="3">
-        <v>96</v>
-      </c>
-      <c r="L62" s="3">
-        <v>133</v>
-      </c>
-      <c r="M62" s="3">
-        <v>103</v>
-      </c>
-      <c r="N62" s="3">
-        <v>96</v>
-      </c>
-      <c r="O62" s="3">
-        <v>92</v>
-      </c>
-      <c r="P62" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>60</v>
-      </c>
-      <c r="R62" s="3">
-        <v>66</v>
-      </c>
-      <c r="S62" s="3">
-        <v>63</v>
-      </c>
-      <c r="T62" s="3">
-        <v>47</v>
-      </c>
-      <c r="U62" s="3">
-        <v>68</v>
-      </c>
-      <c r="V62" s="3">
-        <v>51</v>
-      </c>
-      <c r="W62" s="3">
-        <v>57</v>
-      </c>
-      <c r="X62" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>57</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>56</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>32</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>34</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>20</v>
-      </c>
-      <c r="AD62" s="3">
-        <v>38</v>
-      </c>
-      <c r="AE62" s="3">
-        <v>21</v>
-      </c>
       <c r="AF62" s="3">
-        <v>31</v>
-      </c>
-      <c r="AG62" s="3">
-        <v>27</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AG62" s="4"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" t="s" s="2">
         <v>94</v>
       </c>
       <c r="B63" s="3">
-        <v>762</v>
+        <v>105</v>
       </c>
       <c r="C63" s="3">
-        <v>716</v>
+        <v>84</v>
       </c>
       <c r="D63" s="3">
-        <v>625</v>
+        <v>82</v>
       </c>
       <c r="E63" s="3">
-        <v>605</v>
+        <v>89</v>
       </c>
       <c r="F63" s="3">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="G63" s="3">
-        <v>584</v>
+        <v>94</v>
       </c>
       <c r="H63" s="3">
-        <v>598</v>
+        <v>86</v>
       </c>
       <c r="I63" s="3">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="J63" s="3">
-        <v>461</v>
+        <v>52</v>
       </c>
       <c r="K63" s="3">
-        <v>435</v>
+        <v>65</v>
       </c>
       <c r="L63" s="3">
-        <v>478</v>
+        <v>46</v>
       </c>
       <c r="M63" s="3">
-        <v>407</v>
+        <v>55</v>
       </c>
       <c r="N63" s="3">
-        <v>448</v>
+        <v>49</v>
       </c>
       <c r="O63" s="3">
-        <v>471</v>
+        <v>53</v>
       </c>
       <c r="P63" s="3">
-        <v>407</v>
+        <v>53</v>
       </c>
       <c r="Q63" s="3">
-        <v>372</v>
+        <v>49</v>
       </c>
       <c r="R63" s="3">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="S63" s="3">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="T63" s="3">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="U63" s="3">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="V63" s="3">
-        <v>273</v>
+        <v>43</v>
       </c>
       <c r="W63" s="3">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="X63" s="3">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="Y63" s="3">
-        <v>345</v>
+        <v>53</v>
       </c>
       <c r="Z63" s="3">
-        <v>319</v>
+        <v>51</v>
       </c>
       <c r="AA63" s="3">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="AB63" s="3">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="AC63" s="3">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="AD63" s="3">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="AE63" s="3">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="AF63" s="3">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="AG63" s="3">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B64" s="3">
-        <v>665</v>
-      </c>
-      <c r="C64" s="3">
-        <v>584</v>
-      </c>
-      <c r="D64" s="3">
-        <v>514</v>
-      </c>
-      <c r="E64" s="3">
-        <v>540</v>
-      </c>
-      <c r="F64" s="3">
-        <v>444</v>
-      </c>
-      <c r="G64" s="3">
-        <v>516</v>
-      </c>
-      <c r="H64" s="3">
-        <v>391</v>
-      </c>
-      <c r="I64" s="3">
-        <v>348</v>
-      </c>
-      <c r="J64" s="3">
-        <v>324</v>
-      </c>
-      <c r="K64" s="3">
-        <v>331</v>
-      </c>
-      <c r="L64" s="3">
-        <v>314</v>
-      </c>
-      <c r="M64" s="3">
-        <v>290</v>
-      </c>
-      <c r="N64" s="3">
-        <v>270</v>
-      </c>
-      <c r="O64" s="3">
-        <v>281</v>
-      </c>
-      <c r="P64" s="3">
-        <v>278</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>256</v>
-      </c>
-      <c r="R64" s="3">
-        <v>246</v>
-      </c>
-      <c r="S64" s="3">
-        <v>227</v>
-      </c>
-      <c r="T64" s="3">
-        <v>227</v>
-      </c>
-      <c r="U64" s="3">
-        <v>202</v>
-      </c>
-      <c r="V64" s="3">
-        <v>207</v>
-      </c>
-      <c r="W64" s="3">
-        <v>215</v>
-      </c>
-      <c r="X64" s="3">
-        <v>256</v>
-      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="6"/>
       <c r="Y64" s="3">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="Z64" s="3">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA64" s="3">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="AB64" s="3">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="AC64" s="3">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="AD64" s="3">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="AE64" s="3">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="AF64" s="3">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="AG64" s="3">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -8143,254 +8107,302 @@
         <v>96</v>
       </c>
       <c r="B65" s="3">
-        <v>331</v>
+        <v>623</v>
       </c>
       <c r="C65" s="3">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="D65" s="3">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="E65" s="3">
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="F65" s="3">
-        <v>244</v>
+        <v>392</v>
       </c>
       <c r="G65" s="3">
+        <v>409</v>
+      </c>
+      <c r="H65" s="3">
+        <v>434</v>
+      </c>
+      <c r="I65" s="3">
+        <v>401</v>
+      </c>
+      <c r="J65" s="3">
+        <v>375</v>
+      </c>
+      <c r="K65" s="3">
+        <v>402</v>
+      </c>
+      <c r="L65" s="3">
+        <v>401</v>
+      </c>
+      <c r="M65" s="3">
+        <v>394</v>
+      </c>
+      <c r="N65" s="3">
+        <v>390</v>
+      </c>
+      <c r="O65" s="3">
+        <v>348</v>
+      </c>
+      <c r="P65" s="3">
+        <v>342</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>300</v>
+      </c>
+      <c r="R65" s="3">
+        <v>266</v>
+      </c>
+      <c r="S65" s="3">
+        <v>273</v>
+      </c>
+      <c r="T65" s="3">
         <v>280</v>
       </c>
-      <c r="H65" s="3">
-        <v>195</v>
-      </c>
-      <c r="I65" s="3">
-        <v>167</v>
-      </c>
-      <c r="J65" s="3">
-        <v>162</v>
-      </c>
-      <c r="K65" s="3">
+      <c r="U65" s="3">
+        <v>268</v>
+      </c>
+      <c r="V65" s="3">
+        <v>248</v>
+      </c>
+      <c r="W65" s="3">
+        <v>256</v>
+      </c>
+      <c r="X65" s="3">
+        <v>321</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>297</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>255</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>242</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>203</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>197</v>
+      </c>
+      <c r="AD65" s="3">
         <v>160</v>
       </c>
-      <c r="L65" s="3">
-        <v>139</v>
-      </c>
-      <c r="M65" s="3">
-        <v>139</v>
-      </c>
-      <c r="N65" s="3">
-        <v>147</v>
-      </c>
-      <c r="O65" s="3">
-        <v>138</v>
-      </c>
-      <c r="P65" s="3">
-        <v>118</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>133</v>
-      </c>
-      <c r="R65" s="3">
-        <v>134</v>
-      </c>
-      <c r="S65" s="3">
-        <v>101</v>
-      </c>
-      <c r="T65" s="3">
-        <v>101</v>
-      </c>
-      <c r="U65" s="3">
-        <v>81</v>
-      </c>
-      <c r="V65" s="3">
-        <v>94</v>
-      </c>
-      <c r="W65" s="3">
-        <v>110</v>
-      </c>
-      <c r="X65" s="3">
-        <v>109</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>141</v>
-      </c>
-      <c r="Z65" s="3">
-        <v>113</v>
-      </c>
-      <c r="AA65" s="3">
-        <v>124</v>
-      </c>
-      <c r="AB65" s="3">
-        <v>97</v>
-      </c>
-      <c r="AC65" s="3">
-        <v>93</v>
-      </c>
-      <c r="AD65" s="3">
-        <v>60</v>
-      </c>
       <c r="AE65" s="3">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="AF65" s="3">
-        <v>70</v>
-      </c>
-      <c r="AG65" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" t="s" s="2">
         <v>97</v>
       </c>
       <c r="B66" s="3">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C66" s="3">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D66" s="3">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E66" s="3">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F66" s="3">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G66" s="3">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="H66" s="3">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I66" s="3">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J66" s="3">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K66" s="3">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="L66" s="3">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M66" s="3">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N66" s="3">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="O66" s="3">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="P66" s="3">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="Q66" s="3">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="R66" s="3">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="S66" s="3">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="T66" s="3">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="U66" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="V66" s="3">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="W66" s="3">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="X66" s="3">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="Y66" s="3">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="Z66" s="3">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AA66" s="3">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="AB66" s="3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AC66" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AD66" s="3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AE66" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AF66" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="6"/>
+      <c r="B67" s="3">
+        <v>124</v>
+      </c>
+      <c r="C67" s="3">
+        <v>103</v>
+      </c>
+      <c r="D67" s="3">
+        <v>71</v>
+      </c>
+      <c r="E67" s="3">
+        <v>105</v>
+      </c>
+      <c r="F67" s="3">
+        <v>69</v>
+      </c>
+      <c r="G67" s="3">
+        <v>72</v>
+      </c>
+      <c r="H67" s="3">
+        <v>100</v>
+      </c>
+      <c r="I67" s="3">
+        <v>65</v>
+      </c>
+      <c r="J67" s="3">
+        <v>69</v>
+      </c>
+      <c r="K67" s="3">
+        <v>75</v>
+      </c>
+      <c r="L67" s="3">
+        <v>83</v>
+      </c>
+      <c r="M67" s="3">
+        <v>55</v>
+      </c>
+      <c r="N67" s="3">
+        <v>72</v>
+      </c>
+      <c r="O67" s="3">
+        <v>85</v>
+      </c>
+      <c r="P67" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>51</v>
+      </c>
+      <c r="R67" s="3">
+        <v>38</v>
+      </c>
+      <c r="S67" s="3">
+        <v>49</v>
+      </c>
+      <c r="T67" s="3">
+        <v>33</v>
+      </c>
+      <c r="U67" s="3">
+        <v>56</v>
+      </c>
+      <c r="V67" s="3">
+        <v>42</v>
+      </c>
+      <c r="W67" s="3">
+        <v>48</v>
+      </c>
+      <c r="X67" s="3">
+        <v>65</v>
+      </c>
       <c r="Y67" s="3">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Z67" s="3">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AA67" s="3">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AB67" s="3">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AC67" s="3">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AD67" s="3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="AE67" s="3">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="AF67" s="3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AG67" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -8398,100 +8410,100 @@
         <v>99</v>
       </c>
       <c r="B68" s="3">
-        <v>623</v>
+        <v>104</v>
       </c>
       <c r="C68" s="3">
-        <v>519</v>
+        <v>87</v>
       </c>
       <c r="D68" s="3">
-        <v>453</v>
+        <v>90</v>
       </c>
       <c r="E68" s="3">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="F68" s="3">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="G68" s="3">
-        <v>409</v>
+        <v>93</v>
       </c>
       <c r="H68" s="3">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="I68" s="3">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="J68" s="3">
-        <v>375</v>
+        <v>86</v>
       </c>
       <c r="K68" s="3">
-        <v>402</v>
+        <v>62</v>
       </c>
       <c r="L68" s="3">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="M68" s="3">
-        <v>394</v>
+        <v>67</v>
       </c>
       <c r="N68" s="3">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="O68" s="3">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="P68" s="3">
-        <v>342</v>
+        <v>58</v>
       </c>
       <c r="Q68" s="3">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="R68" s="3">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="S68" s="3">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="T68" s="3">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="U68" s="3">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="V68" s="3">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="W68" s="3">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="X68" s="3">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="Y68" s="3">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="Z68" s="3">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="AA68" s="3">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="AB68" s="3">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="AC68" s="3">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="AD68" s="3">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="AE68" s="3">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="AF68" s="3">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="AG68" s="3">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -8499,100 +8511,100 @@
         <v>100</v>
       </c>
       <c r="B69" s="3">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="C69" s="3">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="D69" s="3">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="E69" s="3">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="F69" s="3">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="G69" s="3">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="H69" s="3">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="I69" s="3">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="J69" s="3">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="K69" s="3">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="L69" s="3">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="M69" s="3">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="N69" s="3">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="O69" s="3">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="P69" s="3">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="Q69" s="3">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="R69" s="3">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="S69" s="3">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="T69" s="3">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="U69" s="3">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="V69" s="3">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="W69" s="3">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="X69" s="3">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="Y69" s="3">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="Z69" s="3">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="AA69" s="3">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="AB69" s="3">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="AC69" s="3">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="AD69" s="3">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="AE69" s="3">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="AF69" s="3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="AG69" s="3">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -8600,100 +8612,100 @@
         <v>101</v>
       </c>
       <c r="B70" s="3">
-        <v>124</v>
+        <v>572</v>
       </c>
       <c r="C70" s="3">
-        <v>103</v>
+        <v>537</v>
       </c>
       <c r="D70" s="3">
-        <v>71</v>
+        <v>479</v>
       </c>
       <c r="E70" s="3">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="F70" s="3">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="G70" s="3">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="H70" s="3">
-        <v>100</v>
+        <v>409</v>
       </c>
       <c r="I70" s="3">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="J70" s="3">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="K70" s="3">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="L70" s="3">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="M70" s="3">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="N70" s="3">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="O70" s="3">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="P70" s="3">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="Q70" s="3">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="R70" s="3">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="S70" s="3">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="T70" s="3">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="U70" s="3">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="V70" s="3">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="W70" s="3">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="X70" s="3">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="Y70" s="3">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="Z70" s="3">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="AA70" s="3">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="AB70" s="3">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="AC70" s="3">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="AD70" s="3">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="AE70" s="3">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="AF70" s="3">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="AG70" s="3">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -8701,100 +8713,100 @@
         <v>102</v>
       </c>
       <c r="B71" s="3">
-        <v>104</v>
+        <v>637</v>
       </c>
       <c r="C71" s="3">
-        <v>87</v>
+        <v>577</v>
       </c>
       <c r="D71" s="3">
-        <v>90</v>
+        <v>488</v>
       </c>
       <c r="E71" s="3">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="F71" s="3">
-        <v>72</v>
+        <v>439</v>
       </c>
       <c r="G71" s="3">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="H71" s="3">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="I71" s="3">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="J71" s="3">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="K71" s="3">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="L71" s="3">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="M71" s="3">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="N71" s="3">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="O71" s="3">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="P71" s="3">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="Q71" s="3">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="R71" s="3">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="S71" s="3">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="T71" s="3">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="U71" s="3">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="V71" s="3">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="W71" s="3">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="X71" s="3">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="Y71" s="3">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="Z71" s="3">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="AA71" s="3">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="AB71" s="3">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="AC71" s="3">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="AD71" s="3">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="AE71" s="3">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="AF71" s="3">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="AG71" s="3">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -8802,100 +8814,100 @@
         <v>103</v>
       </c>
       <c r="B72" s="3">
-        <v>305</v>
+        <v>662</v>
       </c>
       <c r="C72" s="3">
-        <v>322</v>
+        <v>628</v>
       </c>
       <c r="D72" s="3">
-        <v>299</v>
+        <v>508</v>
       </c>
       <c r="E72" s="3">
-        <v>311</v>
+        <v>508</v>
       </c>
       <c r="F72" s="3">
-        <v>271</v>
+        <v>419</v>
       </c>
       <c r="G72" s="3">
-        <v>229</v>
+        <v>431</v>
       </c>
       <c r="H72" s="3">
-        <v>185</v>
+        <v>401</v>
       </c>
       <c r="I72" s="3">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="J72" s="3">
+        <v>397</v>
+      </c>
+      <c r="K72" s="3">
+        <v>423</v>
+      </c>
+      <c r="L72" s="3">
+        <v>355</v>
+      </c>
+      <c r="M72" s="3">
+        <v>331</v>
+      </c>
+      <c r="N72" s="3">
+        <v>331</v>
+      </c>
+      <c r="O72" s="3">
+        <v>290</v>
+      </c>
+      <c r="P72" s="3">
+        <v>289</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>294</v>
+      </c>
+      <c r="R72" s="3">
+        <v>254</v>
+      </c>
+      <c r="S72" s="3">
+        <v>263</v>
+      </c>
+      <c r="T72" s="3">
+        <v>249</v>
+      </c>
+      <c r="U72" s="3">
+        <v>248</v>
+      </c>
+      <c r="V72" s="3">
+        <v>237</v>
+      </c>
+      <c r="W72" s="3">
+        <v>207</v>
+      </c>
+      <c r="X72" s="3">
+        <v>275</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>217</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>201</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>191</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>195</v>
+      </c>
+      <c r="AC72" s="3">
         <v>164</v>
       </c>
-      <c r="K72" s="3">
-        <v>195</v>
-      </c>
-      <c r="L72" s="3">
-        <v>171</v>
-      </c>
-      <c r="M72" s="3">
-        <v>163</v>
-      </c>
-      <c r="N72" s="3">
-        <v>173</v>
-      </c>
-      <c r="O72" s="3">
-        <v>148</v>
-      </c>
-      <c r="P72" s="3">
-        <v>151</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>147</v>
-      </c>
-      <c r="R72" s="3">
-        <v>144</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="AD72" s="3">
+        <v>118</v>
+      </c>
+      <c r="AE72" s="3">
         <v>127</v>
       </c>
-      <c r="T72" s="3">
-        <v>138</v>
-      </c>
-      <c r="U72" s="3">
-        <v>127</v>
-      </c>
-      <c r="V72" s="3">
-        <v>135</v>
-      </c>
-      <c r="W72" s="3">
-        <v>131</v>
-      </c>
-      <c r="X72" s="3">
-        <v>157</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>136</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>158</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>128</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>124</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>106</v>
-      </c>
-      <c r="AD72" s="3">
-        <v>106</v>
-      </c>
-      <c r="AE72" s="3">
-        <v>54</v>
-      </c>
       <c r="AF72" s="3">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="AG72" s="3">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -8903,100 +8915,100 @@
         <v>104</v>
       </c>
       <c r="B73" s="3">
-        <v>572</v>
+        <v>462</v>
       </c>
       <c r="C73" s="3">
-        <v>537</v>
+        <v>392</v>
       </c>
       <c r="D73" s="3">
-        <v>479</v>
+        <v>366</v>
       </c>
       <c r="E73" s="3">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="F73" s="3">
-        <v>440</v>
+        <v>285</v>
       </c>
       <c r="G73" s="3">
-        <v>395</v>
+        <v>220</v>
       </c>
       <c r="H73" s="3">
-        <v>409</v>
+        <v>246</v>
       </c>
       <c r="I73" s="3">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="J73" s="3">
-        <v>381</v>
+        <v>213</v>
       </c>
       <c r="K73" s="3">
-        <v>427</v>
+        <v>214</v>
       </c>
       <c r="L73" s="3">
-        <v>379</v>
+        <v>205</v>
       </c>
       <c r="M73" s="3">
-        <v>394</v>
+        <v>245</v>
       </c>
       <c r="N73" s="3">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="O73" s="3">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="P73" s="3">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="Q73" s="3">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="R73" s="3">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="S73" s="3">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="T73" s="3">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="U73" s="3">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="V73" s="3">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="W73" s="3">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="X73" s="3">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y73" s="3">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Z73" s="3">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="AA73" s="3">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AB73" s="3">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AC73" s="3">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="AD73" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AE73" s="3">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="AF73" s="3">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AG73" s="3">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -9004,258 +9016,302 @@
         <v>105</v>
       </c>
       <c r="B74" s="3">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="C74" s="3">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="D74" s="3">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="E74" s="3">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="F74" s="3">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="G74" s="3">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="H74" s="3">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="I74" s="3">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="J74" s="3">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="K74" s="3">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="L74" s="3">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="M74" s="3">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="N74" s="3">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="O74" s="3">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="P74" s="3">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="Q74" s="3">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="R74" s="3">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="S74" s="3">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="T74" s="3">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="U74" s="3">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="V74" s="3">
-        <v>4</v>
-      </c>
-      <c r="W74" s="7"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="8"/>
-      <c r="AE74" s="8"/>
-      <c r="AF74" s="8"/>
-      <c r="AG74" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="W74" s="3">
+        <v>94</v>
+      </c>
+      <c r="X74" s="3">
+        <v>139</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>130</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>131</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>113</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>98</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>84</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>82</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>61</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>49</v>
+      </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" t="s" s="2">
         <v>106</v>
       </c>
       <c r="B75" s="3">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="C75" s="3">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="D75" s="3">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E75" s="3">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="F75" s="3">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="H75" s="3">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="I75" s="3">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="J75" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K75" s="3">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="L75" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="M75" s="3">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N75" s="3">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="O75" s="3">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="P75" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="Q75" s="3">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="R75" s="3">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="S75" s="3">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="T75" s="3">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="U75" s="3">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="V75" s="3">
-        <v>1</v>
-      </c>
-      <c r="W75" s="9"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="W75" s="3">
+        <v>62</v>
+      </c>
+      <c r="X75" s="3">
+        <v>72</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>62</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>35</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>38</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>37</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>34</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>33</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>27</v>
+      </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" t="s" s="2">
         <v>107</v>
       </c>
       <c r="B76" s="3">
-        <v>637</v>
+        <v>190</v>
       </c>
       <c r="C76" s="3">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="D76" s="3">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="E76" s="3">
-        <v>502</v>
+        <v>126</v>
       </c>
       <c r="F76" s="3">
-        <v>439</v>
+        <v>154</v>
       </c>
       <c r="G76" s="3">
-        <v>377</v>
+        <v>100</v>
       </c>
       <c r="H76" s="3">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="I76" s="3">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="J76" s="3">
-        <v>358</v>
+        <v>97</v>
       </c>
       <c r="K76" s="3">
-        <v>393</v>
+        <v>95</v>
       </c>
       <c r="L76" s="3">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="M76" s="3">
-        <v>318</v>
+        <v>118</v>
       </c>
       <c r="N76" s="3">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="O76" s="3">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="P76" s="3">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="Q76" s="3">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="R76" s="3">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="S76" s="3">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="T76" s="3">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="U76" s="3">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="V76" s="3">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="W76" s="3">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="X76" s="3">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="Y76" s="3">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="Z76" s="3">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="AA76" s="3">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="AB76" s="3">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="AC76" s="3">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="AD76" s="3">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AE76" s="3">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AF76" s="3">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AG76" s="3">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -9263,151 +9319,201 @@
         <v>108</v>
       </c>
       <c r="B77" s="3">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="C77" s="3">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D77" s="3">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="F77" s="3">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="I77" s="3">
+        <v>179</v>
+      </c>
+      <c r="J77" s="3">
+        <v>191</v>
+      </c>
+      <c r="K77" s="3">
+        <v>196</v>
+      </c>
+      <c r="L77" s="3">
+        <v>173</v>
+      </c>
+      <c r="M77" s="3">
+        <v>201</v>
+      </c>
+      <c r="N77" s="3">
+        <v>182</v>
+      </c>
+      <c r="O77" s="3">
+        <v>181</v>
+      </c>
+      <c r="P77" s="3">
+        <v>144</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>89</v>
+      </c>
+      <c r="R77" s="3">
+        <v>103</v>
+      </c>
+      <c r="S77" s="3">
+        <v>86</v>
+      </c>
+      <c r="T77" s="3">
+        <v>91</v>
+      </c>
+      <c r="U77" s="3">
+        <v>63</v>
+      </c>
+      <c r="V77" s="3">
+        <v>74</v>
+      </c>
+      <c r="W77" s="3">
+        <v>75</v>
+      </c>
+      <c r="X77" s="3">
+        <v>72</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>87</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>86</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>85</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>64</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>49</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>70</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>33</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>56</v>
+      </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="B78" s="3">
-        <v>662</v>
+        <v>236</v>
       </c>
       <c r="C78" s="3">
-        <v>628</v>
+        <v>227</v>
       </c>
       <c r="D78" s="3">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="E78" s="3">
-        <v>508</v>
+        <v>183</v>
       </c>
       <c r="F78" s="3">
-        <v>419</v>
+        <v>172</v>
       </c>
       <c r="G78" s="3">
-        <v>431</v>
+        <v>168</v>
       </c>
       <c r="H78" s="3">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="I78" s="3">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="J78" s="3">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="K78" s="3">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="L78" s="3">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="M78" s="3">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="N78" s="3">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="O78" s="3">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="P78" s="3">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="Q78" s="3">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="R78" s="3">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="S78" s="3">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="T78" s="3">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="U78" s="3">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="V78" s="3">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="W78" s="3">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="X78" s="3">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="Y78" s="3">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="Z78" s="3">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="AA78" s="3">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AB78" s="3">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="AC78" s="3">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AD78" s="3">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="AE78" s="3">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="AF78" s="3">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="AG78" s="3">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -9415,100 +9521,100 @@
         <v>110</v>
       </c>
       <c r="B79" s="3">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="C79" s="3">
-        <v>392</v>
+        <v>48</v>
       </c>
       <c r="D79" s="3">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="E79" s="3">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="F79" s="3">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="G79" s="3">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="H79" s="3">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="I79" s="3">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="J79" s="3">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="K79" s="3">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="L79" s="3">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="M79" s="3">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="N79" s="3">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="O79" s="3">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="P79" s="3">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="Q79" s="3">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R79" s="3">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="S79" s="3">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="T79" s="3">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="U79" s="3">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="V79" s="3">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="W79" s="3">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="X79" s="3">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="Y79" s="3">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="Z79" s="3">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="AA79" s="3">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="AB79" s="3">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="AC79" s="3">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="AD79" s="3">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="AE79" s="3">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="AF79" s="3">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="AG79" s="3">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -9516,100 +9622,100 @@
         <v>111</v>
       </c>
       <c r="B80" s="3">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="C80" s="3">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="D80" s="3">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="E80" s="3">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="F80" s="3">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="G80" s="3">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="H80" s="3">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="I80" s="3">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J80" s="3">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="K80" s="3">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="L80" s="3">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="M80" s="3">
+        <v>219</v>
+      </c>
+      <c r="N80" s="3">
+        <v>188</v>
+      </c>
+      <c r="O80" s="3">
+        <v>265</v>
+      </c>
+      <c r="P80" s="3">
+        <v>189</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>172</v>
+      </c>
+      <c r="R80" s="3">
+        <v>149</v>
+      </c>
+      <c r="S80" s="3">
+        <v>163</v>
+      </c>
+      <c r="T80" s="3">
+        <v>154</v>
+      </c>
+      <c r="U80" s="3">
+        <v>162</v>
+      </c>
+      <c r="V80" s="3">
+        <v>153</v>
+      </c>
+      <c r="W80" s="3">
+        <v>151</v>
+      </c>
+      <c r="X80" s="3">
+        <v>188</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>201</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>149</v>
+      </c>
+      <c r="AA80" s="3">
         <v>139</v>
       </c>
-      <c r="N80" s="3">
-        <v>166</v>
-      </c>
-      <c r="O80" s="3">
-        <v>152</v>
-      </c>
-      <c r="P80" s="3">
-        <v>141</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>141</v>
-      </c>
-      <c r="R80" s="3">
-        <v>108</v>
-      </c>
-      <c r="S80" s="3">
-        <v>125</v>
-      </c>
-      <c r="T80" s="3">
-        <v>112</v>
-      </c>
-      <c r="U80" s="3">
-        <v>94</v>
-      </c>
-      <c r="V80" s="3">
-        <v>95</v>
-      </c>
-      <c r="W80" s="3">
-        <v>94</v>
-      </c>
-      <c r="X80" s="3">
-        <v>139</v>
-      </c>
-      <c r="Y80" s="3">
-        <v>130</v>
-      </c>
-      <c r="Z80" s="3">
-        <v>131</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>113</v>
-      </c>
       <c r="AB80" s="3">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC80" s="3">
         <v>98</v>
       </c>
       <c r="AD80" s="3">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="AE80" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF80" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AG80" s="3">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -9617,100 +9723,100 @@
         <v>112</v>
       </c>
       <c r="B81" s="3">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="C81" s="3">
+        <v>278</v>
+      </c>
+      <c r="D81" s="3">
+        <v>224</v>
+      </c>
+      <c r="E81" s="3">
+        <v>218</v>
+      </c>
+      <c r="F81" s="3">
+        <v>230</v>
+      </c>
+      <c r="G81" s="3">
+        <v>196</v>
+      </c>
+      <c r="H81" s="3">
+        <v>148</v>
+      </c>
+      <c r="I81" s="3">
+        <v>157</v>
+      </c>
+      <c r="J81" s="3">
+        <v>180</v>
+      </c>
+      <c r="K81" s="3">
+        <v>175</v>
+      </c>
+      <c r="L81" s="3">
+        <v>155</v>
+      </c>
+      <c r="M81" s="3">
+        <v>183</v>
+      </c>
+      <c r="N81" s="3">
+        <v>182</v>
+      </c>
+      <c r="O81" s="3">
+        <v>181</v>
+      </c>
+      <c r="P81" s="3">
+        <v>165</v>
+      </c>
+      <c r="Q81" s="3">
         <v>136</v>
       </c>
-      <c r="D81" s="3">
-        <v>132</v>
-      </c>
-      <c r="E81" s="3">
-        <v>137</v>
-      </c>
-      <c r="F81" s="3">
-        <v>89</v>
-      </c>
-      <c r="G81" s="3">
-        <v>121</v>
-      </c>
-      <c r="H81" s="3">
-        <v>109</v>
-      </c>
-      <c r="I81" s="3">
-        <v>109</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>107</v>
-      </c>
-      <c r="L81" s="3">
-        <v>129</v>
-      </c>
-      <c r="M81" s="3">
-        <v>105</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
+        <v>140</v>
+      </c>
+      <c r="S81" s="3">
+        <v>133</v>
+      </c>
+      <c r="T81" s="3">
+        <v>142</v>
+      </c>
+      <c r="U81" s="3">
+        <v>134</v>
+      </c>
+      <c r="V81" s="3">
         <v>136</v>
       </c>
-      <c r="O81" s="3">
+      <c r="W81" s="3">
         <v>134</v>
       </c>
-      <c r="P81" s="3">
-        <v>111</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>104</v>
-      </c>
-      <c r="R81" s="3">
-        <v>109</v>
-      </c>
-      <c r="S81" s="3">
-        <v>91</v>
-      </c>
-      <c r="T81" s="3">
-        <v>94</v>
-      </c>
-      <c r="U81" s="3">
-        <v>103</v>
-      </c>
-      <c r="V81" s="3">
-        <v>45</v>
-      </c>
-      <c r="W81" s="3">
-        <v>62</v>
-      </c>
       <c r="X81" s="3">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="Y81" s="3">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="Z81" s="3">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="AA81" s="3">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="AB81" s="3">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AC81" s="3">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AD81" s="3">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AE81" s="3">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="AF81" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AG81" s="3">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -9718,100 +9824,100 @@
         <v>113</v>
       </c>
       <c r="B82" s="3">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C82" s="3">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="D82" s="3">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E82" s="3">
+        <v>136</v>
+      </c>
+      <c r="F82" s="3">
+        <v>131</v>
+      </c>
+      <c r="G82" s="3">
+        <v>151</v>
+      </c>
+      <c r="H82" s="3">
+        <v>145</v>
+      </c>
+      <c r="I82" s="3">
+        <v>150</v>
+      </c>
+      <c r="J82" s="3">
+        <v>160</v>
+      </c>
+      <c r="K82" s="3">
+        <v>179</v>
+      </c>
+      <c r="L82" s="3">
+        <v>139</v>
+      </c>
+      <c r="M82" s="3">
         <v>126</v>
       </c>
-      <c r="F82" s="3">
-        <v>154</v>
-      </c>
-      <c r="G82" s="3">
-        <v>100</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="N82" s="3">
+        <v>111</v>
+      </c>
+      <c r="O82" s="3">
+        <v>119</v>
+      </c>
+      <c r="P82" s="3">
+        <v>118</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>125</v>
+      </c>
+      <c r="R82" s="3">
         <v>112</v>
       </c>
-      <c r="I82" s="3">
-        <v>114</v>
-      </c>
-      <c r="J82" s="3">
-        <v>97</v>
-      </c>
-      <c r="K82" s="3">
-        <v>95</v>
-      </c>
-      <c r="L82" s="3">
-        <v>122</v>
-      </c>
-      <c r="M82" s="3">
-        <v>118</v>
-      </c>
-      <c r="N82" s="3">
-        <v>97</v>
-      </c>
-      <c r="O82" s="3">
-        <v>94</v>
-      </c>
-      <c r="P82" s="3">
-        <v>99</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>81</v>
-      </c>
-      <c r="R82" s="3">
-        <v>88</v>
-      </c>
       <c r="S82" s="3">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="T82" s="3">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="U82" s="3">
+        <v>80</v>
+      </c>
+      <c r="V82" s="3">
+        <v>87</v>
+      </c>
+      <c r="W82" s="3">
+        <v>70</v>
+      </c>
+      <c r="X82" s="3">
+        <v>98</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>69</v>
+      </c>
+      <c r="Z82" s="3">
         <v>62</v>
       </c>
-      <c r="V82" s="3">
-        <v>59</v>
-      </c>
-      <c r="W82" s="3">
-        <v>61</v>
-      </c>
-      <c r="X82" s="3">
-        <v>58</v>
-      </c>
-      <c r="Y82" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z82" s="3">
-        <v>50</v>
-      </c>
       <c r="AA82" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB82" s="3">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="AC82" s="3">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AD82" s="3">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AE82" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF82" s="3">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AG82" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -9819,100 +9925,100 @@
         <v>114</v>
       </c>
       <c r="B83" s="3">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="C83" s="3">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="E83" s="3">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="F83" s="3">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="G83" s="3">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="H83" s="3">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="I83" s="3">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="J83" s="3">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="K83" s="3">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="L83" s="3">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="M83" s="3">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="N83" s="3">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="O83" s="3">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="P83" s="3">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="Q83" s="3">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="R83" s="3">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="S83" s="3">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="T83" s="3">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="U83" s="3">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="V83" s="3">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="W83" s="3">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="X83" s="3">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="Y83" s="3">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="Z83" s="3">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="AA83" s="3">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="AB83" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="AC83" s="3">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="AD83" s="3">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="AE83" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AF83" s="3">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AG83" s="3">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -9920,179 +10026,201 @@
         <v>115</v>
       </c>
       <c r="B84" s="3">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="C84" s="3">
+        <v>93</v>
+      </c>
+      <c r="D84" s="3">
+        <v>101</v>
+      </c>
+      <c r="E84" s="3">
+        <v>85</v>
+      </c>
+      <c r="F84" s="3">
+        <v>100</v>
+      </c>
+      <c r="G84" s="3">
+        <v>122</v>
+      </c>
+      <c r="H84" s="3">
+        <v>72</v>
+      </c>
+      <c r="I84" s="3">
+        <v>74</v>
+      </c>
+      <c r="J84" s="3">
+        <v>88</v>
+      </c>
+      <c r="K84" s="3">
+        <v>64</v>
+      </c>
+      <c r="L84" s="3">
+        <v>73</v>
+      </c>
+      <c r="M84" s="3">
+        <v>83</v>
+      </c>
+      <c r="N84" s="3">
+        <v>76</v>
+      </c>
+      <c r="O84" s="3">
+        <v>62</v>
+      </c>
+      <c r="P84" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>71</v>
+      </c>
+      <c r="R84" s="3">
+        <v>57</v>
+      </c>
+      <c r="S84" s="3">
+        <v>40</v>
+      </c>
+      <c r="T84" s="3">
+        <v>42</v>
+      </c>
+      <c r="U84" s="3">
+        <v>35</v>
+      </c>
+      <c r="V84" s="3">
+        <v>28</v>
+      </c>
+      <c r="W84" s="3">
+        <v>17</v>
+      </c>
+      <c r="X84" s="3">
+        <v>27</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>22</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG84" s="3">
         <v>14</v>
       </c>
-      <c r="D84" s="3">
-        <v>15</v>
-      </c>
-      <c r="E84" s="3">
-        <v>13</v>
-      </c>
-      <c r="F84" s="3">
-        <v>16</v>
-      </c>
-      <c r="G84" s="3">
-        <v>10</v>
-      </c>
-      <c r="H84" s="3">
-        <v>9</v>
-      </c>
-      <c r="I84" s="3">
-        <v>12</v>
-      </c>
-      <c r="J84" s="3">
-        <v>9</v>
-      </c>
-      <c r="K84" s="3">
-        <v>7</v>
-      </c>
-      <c r="L84" s="3">
-        <v>8</v>
-      </c>
-      <c r="M84" s="3">
-        <v>11</v>
-      </c>
-      <c r="N84" s="3">
-        <v>4</v>
-      </c>
-      <c r="O84" s="3">
-        <v>8</v>
-      </c>
-      <c r="P84" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>3</v>
-      </c>
-      <c r="R84" s="3">
-        <v>8</v>
-      </c>
-      <c r="S84" s="3">
-        <v>3</v>
-      </c>
-      <c r="T84" s="3">
-        <v>5</v>
-      </c>
-      <c r="U84" s="3">
-        <v>4</v>
-      </c>
-      <c r="V84" s="3">
-        <v>2</v>
-      </c>
-      <c r="W84" s="4"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" t="s" s="2">
         <v>116</v>
       </c>
       <c r="B85" s="3">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="C85" s="3">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="D85" s="3">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="E85" s="3">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="F85" s="3">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="G85" s="3">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="H85" s="3">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="I85" s="3">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="J85" s="3">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="K85" s="3">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="L85" s="3">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="M85" s="3">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="N85" s="3">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="O85" s="3">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="P85" s="3">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="Q85" s="3">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="R85" s="3">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="S85" s="3">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="T85" s="3">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="U85" s="3">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="V85" s="3">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="W85" s="3">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="X85" s="3">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Y85" s="3">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="Z85" s="3">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA85" s="3">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="AB85" s="3">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AC85" s="3">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD85" s="3">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AE85" s="3">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AF85" s="3">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AG85" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -10100,926 +10228,101 @@
         <v>117</v>
       </c>
       <c r="B86" s="3">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C86" s="3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D86" s="3">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E86" s="3">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F86" s="3">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G86" s="3">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H86" s="3">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I86" s="3">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J86" s="3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K86" s="3">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="L86" s="3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="M86" s="3">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="N86" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="O86" s="3">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="P86" s="3">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="Q86" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="R86" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S86" s="3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T86" s="3">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="U86" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="V86" s="3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="W86" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="X86" s="3">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="Y86" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Z86" s="3">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AA86" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AB86" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AC86" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AD86" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE86" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AF86" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG86" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B87" s="3">
-        <v>4</v>
-      </c>
-      <c r="C87" s="3">
         <v>2</v>
       </c>
-      <c r="D87" s="3">
-        <v>4</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>2</v>
-      </c>
-      <c r="G87" s="3">
-        <v>2</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <v>2</v>
-      </c>
-      <c r="J87" s="3">
-        <v>3</v>
-      </c>
-      <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3">
-        <v>4</v>
-      </c>
-      <c r="M87" s="3">
-        <v>0</v>
-      </c>
-      <c r="N87" s="3">
-        <v>4</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>3</v>
-      </c>
-      <c r="R87" s="3">
-        <v>4</v>
-      </c>
-      <c r="S87" s="3">
-        <v>2</v>
-      </c>
-      <c r="T87" s="3">
-        <v>3</v>
-      </c>
-      <c r="U87" s="3">
-        <v>1</v>
-      </c>
-      <c r="V87" s="3">
-        <v>2</v>
-      </c>
-      <c r="W87" s="4"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
-    </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B88" s="3">
-        <v>448</v>
-      </c>
-      <c r="C88" s="3">
-        <v>445</v>
-      </c>
-      <c r="D88" s="3">
-        <v>381</v>
-      </c>
-      <c r="E88" s="3">
-        <v>325</v>
-      </c>
-      <c r="F88" s="3">
-        <v>350</v>
-      </c>
-      <c r="G88" s="3">
-        <v>330</v>
-      </c>
-      <c r="H88" s="3">
-        <v>323</v>
-      </c>
-      <c r="I88" s="3">
-        <v>244</v>
-      </c>
-      <c r="J88" s="3">
-        <v>234</v>
-      </c>
-      <c r="K88" s="3">
-        <v>243</v>
-      </c>
-      <c r="L88" s="3">
-        <v>244</v>
-      </c>
-      <c r="M88" s="3">
-        <v>219</v>
-      </c>
-      <c r="N88" s="3">
-        <v>188</v>
-      </c>
-      <c r="O88" s="3">
-        <v>265</v>
-      </c>
-      <c r="P88" s="3">
-        <v>189</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>172</v>
-      </c>
-      <c r="R88" s="3">
-        <v>149</v>
-      </c>
-      <c r="S88" s="3">
-        <v>163</v>
-      </c>
-      <c r="T88" s="3">
-        <v>154</v>
-      </c>
-      <c r="U88" s="3">
-        <v>162</v>
-      </c>
-      <c r="V88" s="3">
-        <v>153</v>
-      </c>
-      <c r="W88" s="3">
-        <v>151</v>
-      </c>
-      <c r="X88" s="3">
-        <v>188</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>201</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>149</v>
-      </c>
-      <c r="AA88" s="3">
-        <v>139</v>
-      </c>
-      <c r="AB88" s="3">
-        <v>111</v>
-      </c>
-      <c r="AC88" s="3">
-        <v>98</v>
-      </c>
-      <c r="AD88" s="3">
-        <v>67</v>
-      </c>
-      <c r="AE88" s="3">
-        <v>83</v>
-      </c>
-      <c r="AF88" s="3">
-        <v>69</v>
-      </c>
-      <c r="AG88" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B89" s="3">
-        <v>354</v>
-      </c>
-      <c r="C89" s="3">
-        <v>278</v>
-      </c>
-      <c r="D89" s="3">
-        <v>224</v>
-      </c>
-      <c r="E89" s="3">
-        <v>218</v>
-      </c>
-      <c r="F89" s="3">
-        <v>230</v>
-      </c>
-      <c r="G89" s="3">
-        <v>196</v>
-      </c>
-      <c r="H89" s="3">
-        <v>148</v>
-      </c>
-      <c r="I89" s="3">
-        <v>157</v>
-      </c>
-      <c r="J89" s="3">
-        <v>180</v>
-      </c>
-      <c r="K89" s="3">
-        <v>175</v>
-      </c>
-      <c r="L89" s="3">
-        <v>155</v>
-      </c>
-      <c r="M89" s="3">
-        <v>183</v>
-      </c>
-      <c r="N89" s="3">
-        <v>182</v>
-      </c>
-      <c r="O89" s="3">
-        <v>181</v>
-      </c>
-      <c r="P89" s="3">
-        <v>165</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>136</v>
-      </c>
-      <c r="R89" s="3">
-        <v>140</v>
-      </c>
-      <c r="S89" s="3">
-        <v>133</v>
-      </c>
-      <c r="T89" s="3">
-        <v>142</v>
-      </c>
-      <c r="U89" s="3">
-        <v>134</v>
-      </c>
-      <c r="V89" s="3">
-        <v>136</v>
-      </c>
-      <c r="W89" s="3">
-        <v>134</v>
-      </c>
-      <c r="X89" s="3">
-        <v>162</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>184</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>146</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>97</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>88</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>88</v>
-      </c>
-      <c r="AD89" s="3">
-        <v>65</v>
-      </c>
-      <c r="AE89" s="3">
-        <v>52</v>
-      </c>
-      <c r="AF89" s="3">
-        <v>53</v>
-      </c>
-      <c r="AG89" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B90" s="3">
-        <v>201</v>
-      </c>
-      <c r="C90" s="3">
-        <v>169</v>
-      </c>
-      <c r="D90" s="3">
-        <v>174</v>
-      </c>
-      <c r="E90" s="3">
-        <v>136</v>
-      </c>
-      <c r="F90" s="3">
-        <v>131</v>
-      </c>
-      <c r="G90" s="3">
-        <v>151</v>
-      </c>
-      <c r="H90" s="3">
-        <v>145</v>
-      </c>
-      <c r="I90" s="3">
-        <v>150</v>
-      </c>
-      <c r="J90" s="3">
-        <v>160</v>
-      </c>
-      <c r="K90" s="3">
-        <v>179</v>
-      </c>
-      <c r="L90" s="3">
-        <v>139</v>
-      </c>
-      <c r="M90" s="3">
-        <v>126</v>
-      </c>
-      <c r="N90" s="3">
-        <v>111</v>
-      </c>
-      <c r="O90" s="3">
-        <v>119</v>
-      </c>
-      <c r="P90" s="3">
-        <v>118</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>125</v>
-      </c>
-      <c r="R90" s="3">
-        <v>112</v>
-      </c>
-      <c r="S90" s="3">
-        <v>104</v>
-      </c>
-      <c r="T90" s="3">
-        <v>103</v>
-      </c>
-      <c r="U90" s="3">
-        <v>80</v>
-      </c>
-      <c r="V90" s="3">
-        <v>87</v>
-      </c>
-      <c r="W90" s="3">
-        <v>70</v>
-      </c>
-      <c r="X90" s="3">
-        <v>98</v>
-      </c>
-      <c r="Y90" s="3">
-        <v>69</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>62</v>
-      </c>
-      <c r="AA90" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB90" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC90" s="3">
-        <v>28</v>
-      </c>
-      <c r="AD90" s="3">
-        <v>29</v>
-      </c>
-      <c r="AE90" s="3">
-        <v>27</v>
-      </c>
-      <c r="AF90" s="3">
-        <v>29</v>
-      </c>
-      <c r="AG90" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B91" s="3">
-        <v>76</v>
-      </c>
-      <c r="C91" s="3">
-        <v>71</v>
-      </c>
-      <c r="D91" s="3">
-        <v>44</v>
-      </c>
-      <c r="E91" s="3">
-        <v>39</v>
-      </c>
-      <c r="F91" s="3">
-        <v>36</v>
-      </c>
-      <c r="G91" s="3">
-        <v>27</v>
-      </c>
-      <c r="H91" s="3">
-        <v>35</v>
-      </c>
-      <c r="I91" s="3">
-        <v>29</v>
-      </c>
-      <c r="J91" s="3">
-        <v>23</v>
-      </c>
-      <c r="K91" s="3">
-        <v>29</v>
-      </c>
-      <c r="L91" s="3">
-        <v>29</v>
-      </c>
-      <c r="M91" s="3">
-        <v>20</v>
-      </c>
-      <c r="N91" s="3">
-        <v>28</v>
-      </c>
-      <c r="O91" s="3">
-        <v>22</v>
-      </c>
-      <c r="P91" s="3">
-        <v>24</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>21</v>
-      </c>
-      <c r="R91" s="3">
-        <v>25</v>
-      </c>
-      <c r="S91" s="3">
-        <v>22</v>
-      </c>
-      <c r="T91" s="3">
-        <v>14</v>
-      </c>
-      <c r="U91" s="3">
-        <v>19</v>
-      </c>
-      <c r="V91" s="3">
-        <v>17</v>
-      </c>
-      <c r="W91" s="3">
-        <v>13</v>
-      </c>
-      <c r="X91" s="3">
-        <v>14</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>17</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>11</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>9</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>6</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE91" s="3">
-        <v>8</v>
-      </c>
-      <c r="AF91" s="3">
-        <v>4</v>
-      </c>
-      <c r="AG91" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B92" s="3">
-        <v>142</v>
-      </c>
-      <c r="C92" s="3">
-        <v>93</v>
-      </c>
-      <c r="D92" s="3">
-        <v>101</v>
-      </c>
-      <c r="E92" s="3">
-        <v>85</v>
-      </c>
-      <c r="F92" s="3">
-        <v>100</v>
-      </c>
-      <c r="G92" s="3">
-        <v>122</v>
-      </c>
-      <c r="H92" s="3">
-        <v>72</v>
-      </c>
-      <c r="I92" s="3">
-        <v>74</v>
-      </c>
-      <c r="J92" s="3">
-        <v>88</v>
-      </c>
-      <c r="K92" s="3">
-        <v>64</v>
-      </c>
-      <c r="L92" s="3">
-        <v>73</v>
-      </c>
-      <c r="M92" s="3">
-        <v>83</v>
-      </c>
-      <c r="N92" s="3">
-        <v>76</v>
-      </c>
-      <c r="O92" s="3">
-        <v>62</v>
-      </c>
-      <c r="P92" s="3">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>71</v>
-      </c>
-      <c r="R92" s="3">
-        <v>57</v>
-      </c>
-      <c r="S92" s="3">
-        <v>40</v>
-      </c>
-      <c r="T92" s="3">
-        <v>42</v>
-      </c>
-      <c r="U92" s="3">
-        <v>35</v>
-      </c>
-      <c r="V92" s="3">
-        <v>28</v>
-      </c>
-      <c r="W92" s="3">
-        <v>17</v>
-      </c>
-      <c r="X92" s="3">
-        <v>27</v>
-      </c>
-      <c r="Y92" s="3">
-        <v>24</v>
-      </c>
-      <c r="Z92" s="3">
-        <v>33</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>33</v>
-      </c>
-      <c r="AB92" s="3">
-        <v>17</v>
-      </c>
-      <c r="AC92" s="3">
-        <v>25</v>
-      </c>
-      <c r="AD92" s="3">
-        <v>12</v>
-      </c>
-      <c r="AE92" s="3">
-        <v>22</v>
-      </c>
-      <c r="AF92" s="3">
-        <v>20</v>
-      </c>
-      <c r="AG92" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B93" s="3">
-        <v>45</v>
-      </c>
-      <c r="C93" s="3">
-        <v>50</v>
-      </c>
-      <c r="D93" s="3">
-        <v>46</v>
-      </c>
-      <c r="E93" s="3">
-        <v>50</v>
-      </c>
-      <c r="F93" s="3">
-        <v>45</v>
-      </c>
-      <c r="G93" s="3">
-        <v>37</v>
-      </c>
-      <c r="H93" s="3">
-        <v>51</v>
-      </c>
-      <c r="I93" s="3">
-        <v>25</v>
-      </c>
-      <c r="J93" s="3">
-        <v>34</v>
-      </c>
-      <c r="K93" s="3">
-        <v>36</v>
-      </c>
-      <c r="L93" s="3">
-        <v>29</v>
-      </c>
-      <c r="M93" s="3">
-        <v>26</v>
-      </c>
-      <c r="N93" s="3">
-        <v>30</v>
-      </c>
-      <c r="O93" s="3">
-        <v>30</v>
-      </c>
-      <c r="P93" s="3">
-        <v>29</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>21</v>
-      </c>
-      <c r="R93" s="3">
-        <v>17</v>
-      </c>
-      <c r="S93" s="3">
-        <v>31</v>
-      </c>
-      <c r="T93" s="3">
-        <v>19</v>
-      </c>
-      <c r="U93" s="3">
-        <v>21</v>
-      </c>
-      <c r="V93" s="3">
-        <v>16</v>
-      </c>
-      <c r="W93" s="3">
-        <v>17</v>
-      </c>
-      <c r="X93" s="3">
-        <v>27</v>
-      </c>
-      <c r="Y93" s="3">
-        <v>30</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>21</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>17</v>
-      </c>
-      <c r="AB93" s="3">
-        <v>19</v>
-      </c>
-      <c r="AC93" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD93" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE93" s="3">
-        <v>13</v>
-      </c>
-      <c r="AF93" s="3">
-        <v>6</v>
-      </c>
-      <c r="AG93" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B94" s="3">
-        <v>21</v>
-      </c>
-      <c r="C94" s="3">
-        <v>19</v>
-      </c>
-      <c r="D94" s="3">
-        <v>19</v>
-      </c>
-      <c r="E94" s="3">
-        <v>22</v>
-      </c>
-      <c r="F94" s="3">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>15</v>
-      </c>
-      <c r="H94" s="3">
-        <v>15</v>
-      </c>
-      <c r="I94" s="3">
-        <v>14</v>
-      </c>
-      <c r="J94" s="3">
-        <v>15</v>
-      </c>
-      <c r="K94" s="3">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>10</v>
-      </c>
-      <c r="N94" s="3">
-        <v>10</v>
-      </c>
-      <c r="O94" s="3">
-        <v>10</v>
-      </c>
-      <c r="P94" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3">
-        <v>3</v>
-      </c>
-      <c r="V94" s="3">
-        <v>7</v>
-      </c>
-      <c r="W94" s="3">
-        <v>3</v>
-      </c>
-      <c r="X94" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE94" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF94" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG94" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="Z95" s="11"/>
-      <c r="AA95" s="3">
-        <v>86</v>
-      </c>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="8"/>
-      <c r="AD95" s="8"/>
-      <c r="AE95" s="8"/>
-      <c r="AF95" s="8"/>
-      <c r="AG95" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11041,453 +10344,453 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="60.8516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="161.5" style="12" customWidth="1"/>
-    <col min="3" max="26" width="8.85156" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="60.8516" style="7" customWidth="1"/>
+    <col min="2" max="2" width="161.5" style="7" customWidth="1"/>
+    <col min="3" max="26" width="8.85156" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="8.85156" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="13">
-        <v>127</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="A1" t="s" s="8">
+        <v>118</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>120</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" ht="89.25" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s" s="16">
-        <v>131</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>122</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s" s="16">
-        <v>133</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>124</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B6" t="s" s="16">
-        <v>135</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s" s="16">
-        <v>137</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>128</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" ht="38.25" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s" s="16">
-        <v>139</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>130</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B9" t="s" s="16">
-        <v>141</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>132</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B10" t="s" s="16">
-        <v>143</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>134</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B11" t="s" s="16">
-        <v>145</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>136</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B12" t="s" s="16">
-        <v>147</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
+        <v>137</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>138</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
+        <v>139</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>140</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B14" t="s" s="16">
-        <v>151</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>142</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/projects/project-7-final/data/child_mortality_urban_1990_2021.xlsx
+++ b/projects/project-7-final/data/child_mortality_urban_1990_2021.xlsx
@@ -164,7 +164,7 @@
     <t xml:space="preserve">        Ярославская область</t>
   </si>
   <si>
-    <t xml:space="preserve">        Город Москва столица Российской Федерации город федерального значения</t>
+    <t xml:space="preserve">        Город Москва</t>
   </si>
   <si>
     <t xml:space="preserve">        Республика Карелия</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">        Псковская область</t>
   </si>
   <si>
-    <t xml:space="preserve">        Город Санкт-Петербург город федерального значения</t>
+    <t xml:space="preserve">        Город Санкт-Петербург</t>
   </si>
   <si>
     <t xml:space="preserve">        Республика Адыгея (Адыгея)</t>
